--- a/docs/Test giao diện.xlsx
+++ b/docs/Test giao diện.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\DoAn2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\DoAn2_Toyzone\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573F2D3C-47D1-4682-8B09-90B6E5E2DC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F184B508-7374-42F4-83D0-FC1EAF52E8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tong" sheetId="4" r:id="rId1"/>
@@ -39,19 +39,6 @@
     <definedName name="OLE_LINK43">'[1]Home page'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1898,7 +1885,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1985,6 +1972,12 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2164,10 +2157,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2265,24 +2259,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2293,6 +2269,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2307,11 +2289,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2319,14 +2304,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2336,27 +2321,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2373,11 +2337,42 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2695,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5"/>
@@ -2931,35 +2926,41 @@
       <c r="B13" s="36"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="37">
+      <c r="B14" s="68"/>
+      <c r="C14" s="69">
         <f>SUM(C2:C10)</f>
         <v>113</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="69">
         <f>SUM(D2:D10)</f>
         <v>113</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="69">
         <f>SUM(E2:E10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72">
+        <f>C14/C14</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="72">
+        <f>D14/C14</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="72">
+        <f>E14/C14</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
+  <mergeCells count="1">
     <mergeCell ref="A14:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3074,390 +3075,430 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.5" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="55" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="55" t="s">
         <v>424</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="F5" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
+      <c r="F5" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" ht="42.5" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" ht="23.5" customHeight="1">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="55" t="s">
         <v>424</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="F7" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="F7" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" ht="33" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
     </row>
     <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="55" t="s">
         <v>433</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="55" t="s">
         <v>434</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="55" t="s">
         <v>424</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="55" t="s">
         <v>435</v>
       </c>
-      <c r="F9" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="F9" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:8" ht="33" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="55" t="s">
         <v>437</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="55" t="s">
         <v>438</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="55" t="s">
         <v>424</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="55" t="s">
         <v>435</v>
       </c>
-      <c r="F11" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="F11" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" ht="33" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="55" t="s">
         <v>440</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="55" t="s">
         <v>441</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="55" t="s">
         <v>424</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="55" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="F13" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8" ht="33" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8" ht="33" customHeight="1">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="55" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="55" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="55" t="s">
         <v>424</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="55" t="s">
         <v>447</v>
       </c>
-      <c r="F15" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="F15" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="16.5">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="55" t="s">
         <v>450</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="55" t="s">
         <v>451</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="55" t="s">
         <v>452</v>
       </c>
-      <c r="F17" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
+      <c r="F17" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8" ht="41.5" customHeight="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="1:8" ht="26.5" customHeight="1">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="55" t="s">
         <v>450</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="55" t="s">
         <v>455</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="55" t="s">
         <v>456</v>
       </c>
-      <c r="F19" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
+      <c r="F19" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" ht="33">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="55" t="s">
         <v>457</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="55" t="s">
         <v>424</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="F21" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
+      <c r="F21" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" ht="53.5" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="1:8" ht="16.5">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="55" t="s">
         <v>461</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="55" t="s">
         <v>462</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="55" t="s">
         <v>424</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="55" t="s">
         <v>463</v>
       </c>
-      <c r="F23" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
+      <c r="F23" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" ht="39.5" customHeight="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
     </row>
     <row r="25" spans="1:8" ht="28" customHeight="1">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="55" t="s">
         <v>465</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="55" t="s">
         <v>466</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="55" t="s">
         <v>424</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="55" t="s">
         <v>468</v>
       </c>
-      <c r="F25" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+      <c r="F25" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" ht="41.5" customHeight="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G7:G8"/>
@@ -3474,57 +3515,17 @@
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H23:H24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -3641,420 +3642,420 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="48.5" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>469</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>470</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="55" t="s">
         <v>471</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="62"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="32" customHeight="1">
-      <c r="A6" s="64"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="65"/>
-      <c r="C6" s="58"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="46" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="66" t="s">
         <v>476</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>477</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="55" t="s">
         <v>478</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="62"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="65"/>
-      <c r="C8" s="58"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="63"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="53"/>
     </row>
     <row r="9" spans="1:11" ht="23" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="56" t="s">
         <v>482</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="63" t="s">
         <v>483</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="63" t="s">
         <v>478</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="56" t="s">
         <v>485</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="61" t="s">
         <v>474</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="62"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="52"/>
       <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="63"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="53"/>
       <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" ht="30.5" customHeight="1">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="56" t="s">
         <v>486</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="55" t="s">
         <v>478</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="62"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="52"/>
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" ht="38" customHeight="1">
-      <c r="A12" s="60"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="65"/>
-      <c r="C12" s="58"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="63"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:11" ht="38" customHeight="1">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="56" t="s">
         <v>491</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="63" t="s">
         <v>492</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="63" t="s">
         <v>478</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="63" t="s">
         <v>494</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="61" t="s">
         <v>474</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="62"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:11" ht="38" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:11" ht="33" customHeight="1">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="66" t="s">
         <v>495</v>
       </c>
       <c r="B15" s="65" t="s">
         <v>496</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="58" t="s">
         <v>471</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="55" t="s">
         <v>498</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="62"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="65"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="63"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:8" ht="36.5" customHeight="1">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="66" t="s">
         <v>499</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>500</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="63" t="s">
         <v>501</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="55" t="s">
         <v>503</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="61" t="s">
         <v>474</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="62"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="65"/>
-      <c r="C18" s="67"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="63"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="1:8" ht="32" customHeight="1">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="56" t="s">
         <v>505</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>506</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="63" t="s">
         <v>501</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="55" t="s">
         <v>508</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="61" t="s">
         <v>474</v>
       </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="62"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" ht="36" customHeight="1">
-      <c r="A20" s="60"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="65"/>
-      <c r="C20" s="67"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="63"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="38" customHeight="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="56" t="s">
         <v>509</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="63" t="s">
         <v>510</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="63" t="s">
         <v>478</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="63" t="s">
         <v>494</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="61" t="s">
         <v>474</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="62"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" ht="38" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="56" t="s">
         <v>512</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>513</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="55" t="s">
         <v>514</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="55" t="s">
         <v>516</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="61" t="s">
         <v>474</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="62"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" ht="33">
-      <c r="A24" s="60"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="65"/>
-      <c r="C24" s="58"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="63"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
@@ -4172,7 +4173,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.5" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="65" t="s">
@@ -4187,23 +4188,23 @@
       <c r="E5" s="65" t="s">
         <v>521</v>
       </c>
-      <c r="F5" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
+      <c r="F5" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" ht="49" customHeight="1">
-      <c r="A6" s="64"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
       <c r="D6" s="19" t="s">
         <v>522</v>
       </c>
       <c r="E6" s="65"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" ht="55" customHeight="1">
       <c r="A7" s="17" t="s">
@@ -4338,7 +4339,7 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="66" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="65" t="s">
@@ -4350,29 +4351,29 @@
       <c r="D13" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="63" t="s">
         <v>547</v>
       </c>
-      <c r="F13" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="F13" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8" ht="25" customHeight="1">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
       <c r="D14" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8" ht="24.5" customHeight="1">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="66" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="65" t="s">
@@ -4381,30 +4382,30 @@
       <c r="C15" s="65" t="s">
         <v>545</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="55" t="s">
         <v>550</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="63" t="s">
         <v>551</v>
       </c>
-      <c r="F15" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="F15" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="29.5" customHeight="1">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="65"/>
       <c r="C16" s="65"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:8" ht="32" customHeight="1">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="66" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="65" t="s">
@@ -4413,30 +4414,30 @@
       <c r="C17" s="65" t="s">
         <v>553</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="55" t="s">
         <v>554</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="63" t="s">
         <v>555</v>
       </c>
-      <c r="F17" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
+      <c r="F17" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8" ht="33" customHeight="1">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="1:8" ht="27" customHeight="1">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="66" t="s">
         <v>106</v>
       </c>
       <c r="B19" s="65" t="s">
@@ -4451,57 +4452,57 @@
       <c r="E19" s="65" t="s">
         <v>559</v>
       </c>
-      <c r="F19" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
+      <c r="F19" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" ht="35" customHeight="1">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
       <c r="D20" s="19" t="s">
         <v>560</v>
       </c>
       <c r="E20" s="65"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="32" customHeight="1">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="63" t="s">
         <v>561</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="56" t="s">
         <v>557</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="63" t="s">
         <v>563</v>
       </c>
-      <c r="F21" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
+      <c r="F21" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="60"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="1:8" ht="72.5" customHeight="1">
       <c r="A23" s="17" t="s">
@@ -4592,7 +4593,7 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="33">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="56" t="s">
         <v>129</v>
       </c>
       <c r="B27" s="65" t="s">
@@ -4604,75 +4605,89 @@
       <c r="D27" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="63" t="s">
         <v>583</v>
       </c>
-      <c r="F27" s="64" t="s">
+      <c r="F27" s="66" t="s">
         <v>37</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" ht="44" customHeight="1">
-      <c r="A28" s="60"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="65"/>
       <c r="C28" s="65"/>
       <c r="D28" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" ht="38" customHeight="1">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="63" t="s">
         <v>585</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="63" t="s">
         <v>586</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="63" t="s">
         <v>588</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="56" t="s">
         <v>37</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" ht="32" customHeight="1">
-      <c r="A30" s="60"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="60"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E29:E30"/>
@@ -4689,32 +4704,18 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
@@ -4836,84 +4837,84 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="F5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="51" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="F8" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8" ht="43" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="49.5">
       <c r="A10" s="30" t="s">
@@ -4938,291 +4939,320 @@
       <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8" ht="40" customHeight="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="F11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="33">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="32" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="F13" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" ht="33">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="F15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="47" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="31" customHeight="1">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="37" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="F17" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="31" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="39" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="33">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="37" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
+      <c r="F20" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="28" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" ht="25" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" ht="33">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
+      <c r="F23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" ht="33">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" ht="16.5">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
+      <c r="F25" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="33">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" ht="33">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="63">
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="F20:F22"/>
     <mergeCell ref="F23:F24"/>
@@ -5239,44 +5269,15 @@
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -5403,50 +5404,50 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="F5" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="15.5">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="42" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="72" customHeight="1">
       <c r="A8" s="25" t="s">
@@ -5537,244 +5538,244 @@
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="22" customHeight="1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="39" t="s">
         <v>86</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="F12" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="31">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="22" customHeight="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="39" t="s">
         <v>86</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="F14" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="39" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" ht="28" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="39" t="s">
         <v>66</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="F16" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" ht="24" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="28" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="19" customHeight="1">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="39" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="F19" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="25" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="23" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="31">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="39" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="F22" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="31">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="15.5">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="39" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="F24" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" ht="31">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="15.5">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" ht="46.5">
       <c r="A27" s="25" t="s">
@@ -6043,13 +6044,34 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="49">
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F24:F26"/>
     <mergeCell ref="G5:G7"/>
@@ -6064,34 +6086,13 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="F19:F21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -6240,38 +6241,38 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="F6" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="28" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="46.5">
       <c r="A8" s="25" t="s">
@@ -6384,38 +6385,38 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="39" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="F13" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="31">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="46.5">
       <c r="A15" s="25" t="s">
@@ -6462,38 +6463,38 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="31">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="F17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="15.5">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="46.5">
       <c r="A19" s="25" t="s">
@@ -6520,6 +6521,18 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="21">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H18"/>
@@ -6529,18 +6542,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -6684,38 +6685,38 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="27" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="F6" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="28" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="31">
       <c r="A8" s="25" t="s">
@@ -6828,38 +6829,38 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="39" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="F13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="31">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="46.5">
       <c r="A15" s="25" t="s">
@@ -6906,38 +6907,38 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="31">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="39" t="s">
         <v>158</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="15.5">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="52" customHeight="1">
       <c r="A19" s="25" t="s">
@@ -6964,6 +6965,18 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="21">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H18"/>
@@ -6973,18 +6986,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -7108,296 +7109,296 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.5" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="41" t="s">
         <v>203</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="F5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="34" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" ht="32" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="41" t="s">
         <v>209</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="F8" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="F8" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="45" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="36.5" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="41" t="s">
         <v>209</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
+      <c r="F11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="44" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="41.5" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="41" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="F14" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="F14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="47.5" customHeight="1">
-      <c r="A15" s="49"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="45" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="41" t="s">
         <v>209</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="F18" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
+      <c r="F18" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" ht="53.5" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="57.5" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G18:G21"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H14:H17"/>
     <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -7519,38 +7520,38 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>228</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="F5" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="15.5">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="59" customHeight="1">
       <c r="A7" s="25" t="s">
@@ -7575,38 +7576,38 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="46.5">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="39" t="s">
         <v>228</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="F8" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="15.5">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="46.5">
       <c r="A10" s="25" t="s">
@@ -7631,38 +7632,38 @@
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="27.65" customHeight="1">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="39" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
+      <c r="F11" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="15.5">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="46.5">
       <c r="A13" s="25" t="s">
@@ -7709,38 +7710,38 @@
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="15.5">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="39" t="s">
         <v>251</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="F15" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" ht="31">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" ht="46.5">
       <c r="A17" s="25" t="s">
@@ -7765,38 +7766,38 @@
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="15.5">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="39" t="s">
         <v>228</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="F18" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="F18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="31">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="31">
       <c r="A20" s="25" t="s">
@@ -8019,72 +8020,72 @@
       <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:8" ht="31">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="41" t="s">
         <v>308</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="F30" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
+      <c r="F30" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" ht="15.5">
-      <c r="A31" s="54"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:8" ht="31">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="41" t="s">
         <v>271</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="F32" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
+      <c r="F32" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" ht="15.5">
-      <c r="A33" s="54"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
     </row>
     <row r="34" spans="1:8" ht="62">
       <c r="A34" s="27" t="s">
@@ -8109,50 +8110,74 @@
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8" ht="31">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="41" t="s">
         <v>323</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="F35" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
+      <c r="F35" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="15.5">
-      <c r="A36" s="54"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="56">
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="F35:F36"/>
@@ -8169,38 +8194,14 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -8222,7 +8223,7 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -8296,7 +8297,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="33">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -8323,419 +8324,443 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="26" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="41" t="s">
         <v>328</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
+      <c r="F5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="35" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" ht="32.5" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" ht="27" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" ht="26" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="41" t="s">
         <v>335</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="F9" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="F9" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="39" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="38.5" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="41" t="s">
         <v>340</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="F12" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
+      <c r="F12" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="36.5" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" ht="47.5" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="39.5" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="41" t="s">
         <v>340</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="F16" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="F16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="34" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" ht="49" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" ht="43" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="41" t="s">
         <v>340</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="F20" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="F20" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="46" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" ht="35" customHeight="1">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="41" t="s">
         <v>340</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
+      <c r="F23" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="48" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="35" customHeight="1">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="41" t="s">
         <v>359</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="F26" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
+      <c r="F26" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" ht="36" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8" ht="45.5" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8" ht="28" customHeight="1">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="41" t="s">
         <v>359</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="F29" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
+      <c r="F29" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="27.5" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" ht="48" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="F23:F25"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="F29:F31"/>
@@ -8752,38 +8777,14 @@
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="F20:F22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H20:H22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
@@ -8905,106 +8906,106 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>369</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="F5" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="F5" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="31">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="31">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="39" t="s">
         <v>373</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="39" t="s">
         <v>369</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="F7" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="31">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="27.65" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="39" t="s">
         <v>369</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+      <c r="F9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" ht="28" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" ht="46.5">
       <c r="A11" s="25" t="s">
@@ -9051,38 +9052,38 @@
       <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" ht="15.5">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="39" t="s">
         <v>388</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="F13" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="46.5">
       <c r="A15" s="25" t="s">
@@ -9107,140 +9108,140 @@
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" ht="27" customHeight="1">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="39" t="s">
         <v>396</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="F16" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="F16" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" ht="34" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" ht="27.65" customHeight="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="39" t="s">
         <v>401</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="F18" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="F18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" ht="15.5">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" ht="15.5">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="39" t="s">
         <v>369</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="F20" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="31">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="39" t="s">
         <v>369</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="F22" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="F22" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="15.5">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="46.5">
       <c r="A24" s="25" t="s">
@@ -9265,38 +9266,38 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="31">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="39" t="s">
         <v>369</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="F25" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
+      <c r="F25" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="31">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" ht="31">
       <c r="A27" s="25" t="s">
@@ -9323,15 +9324,44 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="63">
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
@@ -9348,44 +9378,15 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
